--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10 TIMT\Desktop\Nhom4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27960" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>stt</t>
   </si>
@@ -58,6 +63,12 @@
   </si>
   <si>
     <t>quản lý thông tin nhân viên,lương,số giờ làm</t>
+  </si>
+  <si>
+    <t>Thống Kê</t>
+  </si>
+  <si>
+    <t>Quản lý doanh thu theo thàng ngày theo tháng hoặc theo từng quý.</t>
   </si>
 </sst>
 </file>
@@ -110,10 +121,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,6 +134,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -171,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -428,11 +442,11 @@
   </cols>
   <sheetData>
     <row r="7" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="10" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
@@ -501,14 +515,20 @@
       </c>
     </row>
     <row r="16" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
